--- a/Entrega_1/METADATA.xlsx
+++ b/Entrega_1/METADATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7f805dacea241c7/Desktop/melissa/github/Mineria/Entrega_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab42593c9091a3c7/Documentos/GitHub/Mineria/Entrega_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_946C4E24F874D9558ECF59D7D01758247C0C2F79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F308654E-5624-4BFD-A1C5-0725B105CE6C}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_946C4E24F874D9558ECF59D7D01758247C0C2F79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7D4B5C-68C9-468B-AD83-11345F3E59B6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>Total variables:</t>
   </si>
@@ -28,15 +28,9 @@
     <t>Total individuos:</t>
   </si>
   <si>
-    <t>Nombre de la variable</t>
-  </si>
-  <si>
     <t>Tipo de variable</t>
   </si>
   <si>
-    <t>Cambio</t>
-  </si>
-  <si>
     <t>Tipo de dato</t>
   </si>
   <si>
@@ -79,21 +73,12 @@
     <t>Education level</t>
   </si>
   <si>
-    <t>Categórica ordinal</t>
-  </si>
-  <si>
-    <t>High School, University, Postgraduate, Other</t>
-  </si>
-  <si>
     <t>LoanStatus</t>
   </si>
   <si>
     <t>Categórica politómica</t>
   </si>
   <si>
-    <t>Estado de préstamos: No loan, Active loan, Default risk</t>
-  </si>
-  <si>
     <t>NetPromoterScore</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
     <t>Ingresos y segmentación</t>
   </si>
   <si>
-    <t>Escala de satisfacción del cliente: 0-10</t>
-  </si>
-  <si>
     <t>El NPS suele tratarse como categórica con 3 niveles: 0-6 detractores, 7-8 pasivos, 9-10 promotores, según lo que se quiera modelar</t>
   </si>
   <si>
@@ -175,24 +157,15 @@
     <t>CustomerSegment</t>
   </si>
   <si>
-    <t>Mass Market, Affluent, High Net Worth</t>
-  </si>
-  <si>
     <t>Permite personalizar la estrategia de marketing y retención. Determina qué productos ofrecer. Define el nivel de servicio</t>
   </si>
   <si>
     <t>MaritalStatus</t>
   </si>
   <si>
-    <t>Single, Married, Divorced, Widowed</t>
-  </si>
-  <si>
     <t>DigitalEngagementScore</t>
   </si>
   <si>
-    <t>0-100</t>
-  </si>
-  <si>
     <t>Puntaje de compromiso digital. Mide qué tan activamente un cliente usa los canales digitales del banco (app, web,pagos online, etc)</t>
   </si>
   <si>
@@ -202,9 +175,6 @@
     <t>CreditScore</t>
   </si>
   <si>
-    <t>300-579: muy bajo/riesgo alto, 580-669: bajo/riesgo moderado, 670/739: medio/riesgo aceptable, 740-799: alto/riesgobajo, 800-850: muy alto/riesgo mínimo</t>
-  </si>
-  <si>
     <t>Indicador de compromiso financiero. Clientes con puntaje alto suelen ser más confiables. Con puntaje bajo o medio podrían estar insatisfechos, tener problemas financieros o buscar otros bancos</t>
   </si>
   <si>
@@ -227,13 +197,91 @@
   </si>
   <si>
     <t>0=No abandonó / 1=Abandonó</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>[0-10]</t>
+  </si>
+  <si>
+    <t>{0,1}</t>
+  </si>
+  <si>
+    <t>Escala de satisfacción del cliente</t>
+  </si>
+  <si>
+    <t>[0-100]</t>
+  </si>
+  <si>
+    <t>[18-inf)</t>
+  </si>
+  <si>
+    <t>[0-inf)</t>
+  </si>
+  <si>
+    <t>[300-850]</t>
+  </si>
+  <si>
+    <t>[0-4]</t>
+  </si>
+  <si>
+    <t>Género del cliente</t>
+  </si>
+  <si>
+    <t>Apellido del cliente</t>
+  </si>
+  <si>
+    <t>Edad del cliente</t>
+  </si>
+  <si>
+    <t>Identificador único del cliente</t>
+  </si>
+  <si>
+    <t>Dinero en la cuenta del cliente</t>
+  </si>
+  <si>
+    <t>Puntuación que mide la solvencia crediticia de un cliente, es decir, su capacidad y probabilidad de pagar deudas a tiempo</t>
+  </si>
+  <si>
+    <t>Nivel de interacción de un cliente con los canales digitales de la empresa.</t>
+  </si>
+  <si>
+    <t>Categoría o grupo al que pertenece un cliente según sus características y comportamiento</t>
+  </si>
+  <si>
+    <t>{High School, University, Postgraduate, Other}</t>
+  </si>
+  <si>
+    <t>{Single, Married, Divorced, Widowed}</t>
+  </si>
+  <si>
+    <t>Nivel de estudios del cliente</t>
+  </si>
+  <si>
+    <t>{No loan, Active loan, Default risk}</t>
+  </si>
+  <si>
+    <t>Estado de préstamos</t>
+  </si>
+  <si>
+    <t>{France, Spain, Germany}</t>
+  </si>
+  <si>
+    <t>{Affluent, High Net Worth, Mass Market}</t>
+  </si>
+  <si>
+    <t>Estado civil cliente</t>
+  </si>
+  <si>
+    <t>Nombre de la variabl+A4:G27e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -251,6 +299,28 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,13 +371,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,15 +601,16 @@
   </sheetPr>
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="116.140625" customWidth="1"/>
     <col min="7" max="7" width="98.42578125" customWidth="1"/>
@@ -593,25 +667,25 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -638,446 +712,499 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>